--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/17/word_level_predictions_17.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4454,468 +4448,468 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>4</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>5</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>6</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>7</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>3</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>8</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>9</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>3</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>11</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>3</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>12</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14646,156 +14640,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>15</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" t="n">
         <v>4</v>
       </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>15</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>5</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>15</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>6</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/17/word_level_predictions_17.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -4448,468 +4454,468 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14640,156 +14646,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
+      <c r="F275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="F276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
